--- a/medicine/Psychotrope/James_Buchanan_Duke/James_Buchanan_Duke.xlsx
+++ b/medicine/Psychotrope/James_Buchanan_Duke/James_Buchanan_Duke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Buchanan Duke (23 décembre 1856 – 10 octobre 1925) était un industriel américain de la cigarette et de la production d'électricité.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né près de Durham en Caroline du Nord, son père, Washington Duke (1820-1905), possédait une compagnie de tabac que James B. Duke et son frère Benjamin Newton Duke (1855-1929) reprirent dans les années 1880. Connu par son surnom de "Buck", en 1885, James Buchanan Duke acquit une licence avantageuse d'utilisation de la première machine automatique à fabriquer des cigarettes (inventée par James Albert Bonsack), et en 1890, Duke contrôlait 40 % du marché américain de la cigarette (alors connue sous le nom de tabac pré-roulé). Cette année-là, Duke prit le contrôle de ses quatre grands concurrents sous une seule entité commerciale, l'American Tobacco Company. Duke utilisa alors son monopole sur le marché américain de la cigarette pour engager des prix prédateurs sur les marchés du tabac restant en Amérique : tabac à priser ou à mâcher et tabac en vrac.
 Dans les années 1900, il conclut un accord avec ses concurrents anglais pour diviser le marché, Duke contrôlant le marché américain, les compagnies anglaises contrôlant le marché dans les territoires britanniques, et une troisième - association entre ces parties - la British-American Tobacco Company - contrôlant la vente de tabac pour le reste du monde. Durant ce temps, Duke fut traîné en procès à de nombreuses reprises par ses partenaires commerciaux et par les actionnaires qui affirmaient qu'il s'était engagé dans des affaires illégales. En 1906, l'American Tobacco Company fut reconnue coupable de violations de la loi antitrust, et fut forcée à se diviser en trois compagnies distinctes: l'American Tobacco Company, Ligget and Myers, et la P. Lorillard Company.
